--- a/analisis/ESTADISTICA_DESCRIPTIVA.xlsx
+++ b/analisis/ESTADISTICA_DESCRIPTIVA.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Descriptiva_N2480" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Descriptiva_N12" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -776,4 +777,363 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metrica</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mediana</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Desv_Est</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Instruction Coverage (%)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.25166666666667</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.50267717997496</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="H2" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.407500000000001</v>
+      </c>
+      <c r="J2" t="n">
+        <v>27.3325</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Instruction Coverage (%)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.67525</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16.13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.36214431236463</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="H3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.2225</v>
+      </c>
+      <c r="J3" t="n">
+        <v>26.116125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Branch Coverage (%)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.58333333333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.875</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.61612724518371</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.5625</v>
+      </c>
+      <c r="J4" t="n">
+        <v>17.1875</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Branch Coverage (%)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.046875</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9.890625</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9.491644145971234</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.8828125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Mutation Score (%)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17.71322782555455</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.6425</v>
+      </c>
+      <c r="J6" t="n">
+        <v>22.9175</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mutation Score (%)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.757125</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15.106375</v>
+      </c>
+      <c r="F7" t="n">
+        <v>11.61356661813028</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.5556875</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.7475</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Time (seconds)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0822592261904762</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.07102749999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.06882194001827036</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00932</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1884125</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.03060089285714286</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.12023875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Time (seconds)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IA</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1937777083333333</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.143878125</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1931202829042315</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.005135</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.433825</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0345515625</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.36435</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>